--- a/DATASET/SALUD.xlsx
+++ b/DATASET/SALUD.xlsx
@@ -8,31 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\tcprogAnalitica\DATASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C531CF29-A5C8-4AA6-8311-46F3D22B7284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3414A1-882A-442E-936B-A3FF1B0AB568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="941" firstSheet="6" activeTab="8" xr2:uid="{1E76BBA0-0B7B-455E-A09C-F776062F93CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="941" activeTab="8" xr2:uid="{1E76BBA0-0B7B-455E-A09C-F776062F93CC}"/>
   </bookViews>
   <sheets>
-    <sheet name="SALUD_table_EPS" sheetId="2" r:id="rId1"/>
-    <sheet name="SALUD_table_ESTADOEPS" sheetId="3" r:id="rId2"/>
-    <sheet name="SALUD_table_historialpersona" sheetId="5" r:id="rId3"/>
-    <sheet name="SALUD_table_servicioeps" sheetId="9" r:id="rId4"/>
-    <sheet name="SALUD_table_PERSONA" sheetId="7" r:id="rId5"/>
-    <sheet name="SALUD_table_estadopersona" sheetId="4" r:id="rId6"/>
-    <sheet name="SALUD_table_tipoafiliado" sheetId="10" r:id="rId7"/>
-    <sheet name="SALUD_table_TIPOIDENTIFICACION" sheetId="12" r:id="rId8"/>
-    <sheet name="SALUD_table_tiposervicio" sheetId="13" r:id="rId9"/>
+    <sheet name="EPS" sheetId="2" r:id="rId1"/>
+    <sheet name="ESTADOEPS" sheetId="3" r:id="rId2"/>
+    <sheet name="historialpersona" sheetId="5" r:id="rId3"/>
+    <sheet name="servicioeps" sheetId="9" r:id="rId4"/>
+    <sheet name="PERSONA" sheetId="7" r:id="rId5"/>
+    <sheet name="estadopersona" sheetId="4" r:id="rId6"/>
+    <sheet name="tipoafiliado" sheetId="10" r:id="rId7"/>
+    <sheet name="TIPOIDENTIFICACION" sheetId="12" r:id="rId8"/>
+    <sheet name="tiposervicio" sheetId="13" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">SALUD_table_EPS!$A$1:$C$15</definedName>
-    <definedName name="DatosExternos_1" localSheetId="1" hidden="1">SALUD_table_ESTADOEPS!$A$1:$B$6</definedName>
-    <definedName name="DatosExternos_1" localSheetId="5" hidden="1">SALUD_table_estadopersona!$A$1:$B$5</definedName>
-    <definedName name="DatosExternos_1" localSheetId="4" hidden="1">SALUD_table_PERSONA!$A$1:$F$99</definedName>
-    <definedName name="DatosExternos_1" localSheetId="3" hidden="1">SALUD_table_servicioeps!$A$1:$E$101</definedName>
-    <definedName name="DatosExternos_1" localSheetId="6" hidden="1">SALUD_table_tipoafiliado!$A$1:$B$6</definedName>
-    <definedName name="DatosExternos_1" localSheetId="7" hidden="1">SALUD_table_TIPOIDENTIFICACION!$A$1:$C$6</definedName>
-    <definedName name="DatosExternos_1" localSheetId="8" hidden="1">SALUD_table_tiposervicio!$A$1:$B$11</definedName>
-    <definedName name="DatosExternos_2" localSheetId="2" hidden="1">SALUD_table_historialpersona!$A$1:$H$98</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">EPS!$A$1:$C$15</definedName>
+    <definedName name="DatosExternos_1" localSheetId="1" hidden="1">ESTADOEPS!$A$1:$B$6</definedName>
+    <definedName name="DatosExternos_1" localSheetId="5" hidden="1">estadopersona!$A$1:$B$5</definedName>
+    <definedName name="DatosExternos_1" localSheetId="4" hidden="1">PERSONA!$A$1:$F$99</definedName>
+    <definedName name="DatosExternos_1" localSheetId="3" hidden="1">servicioeps!$A$1:$E$101</definedName>
+    <definedName name="DatosExternos_1" localSheetId="6" hidden="1">tipoafiliado!$A$1:$B$6</definedName>
+    <definedName name="DatosExternos_1" localSheetId="7" hidden="1">TIPOIDENTIFICACION!$A$1:$C$6</definedName>
+    <definedName name="DatosExternos_1" localSheetId="8" hidden="1">tiposervicio!$A$1:$B$11</definedName>
+    <definedName name="DatosExternos_2" localSheetId="2" hidden="1">historialpersona!$A$1:$H$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -801,18 +801,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -844,13 +840,16 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1014,9 +1013,9 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{CBA651C5-E560-463F-9726-31B994539DC6}" uniqueName="1" name="idhistorialpersona" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{F429ECD7-1FFA-4D5D-BCEC-D16BDEEB56C4}" uniqueName="2" name="idpersona" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{7B0AE7C3-66B9-41E4-9EC9-2502FC9A06DE}" uniqueName="3" name="fechaingreso" queryTableFieldId="3" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{6124DC0B-A05F-4B1B-9751-4713549E3255}" uniqueName="4" name="fecharetiro" queryTableFieldId="4" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{57641E37-8D5B-4280-962E-C800A0C2422E}" uniqueName="5" name="estadopersona" queryTableFieldId="5" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{7B0AE7C3-66B9-41E4-9EC9-2502FC9A06DE}" uniqueName="3" name="fechaingreso" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{6124DC0B-A05F-4B1B-9751-4713549E3255}" uniqueName="4" name="fecharetiro" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{57641E37-8D5B-4280-962E-C800A0C2422E}" uniqueName="5" name="estadopersona" queryTableFieldId="5" dataDxfId="11"/>
     <tableColumn id="6" xr3:uid="{5DE1D846-10D9-4D50-83CD-C5BBE6752FB8}" uniqueName="6" name="ideps" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{1C060EF9-87FE-484B-8BF2-88657824C601}" uniqueName="7" name="tipoafiliado" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{10AFB6D4-0B22-47D6-8827-FF01A79BAF1E}" uniqueName="8" name="idTipoServicio" queryTableFieldId="8"/>
@@ -1031,9 +1030,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3C602BE3-8637-426D-9DA9-57381E8F108B}" uniqueName="1" name="ideps" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{098A65CD-824C-4C9F-B3CF-4D57C15F54FC}" uniqueName="2" name="idtiposervicio" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{D93EDEA6-783E-461A-BC18-8895FBBEEBA6}" uniqueName="3" name="estado" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{D93EDEA6-783E-461A-BC18-8895FBBEEBA6}" uniqueName="3" name="estado" queryTableFieldId="3" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{061C6D9C-D1C2-4F55-908D-33F5858498FA}" uniqueName="4" name="valor" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{5E8A92AA-D405-41CE-B2EE-973EB8832DDF}" uniqueName="5" name="detalle" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{5E8A92AA-D405-41CE-B2EE-973EB8832DDF}" uniqueName="5" name="detalle" queryTableFieldId="5" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1045,10 +1044,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C40D6E53-AB27-41AB-9DBD-419CE7258D4C}" uniqueName="1" name="idPersona" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{D5662490-1339-49FC-9C4C-0B8227A8A8A4}" uniqueName="2" name="idTipoidentificacion" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{13586D66-72D3-4F7B-98E1-372EEA901EBB}" uniqueName="3" name="nombre" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{9743215D-554E-44E5-8772-F9C19CDE78C9}" uniqueName="4" name="apellido" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{6ED720C2-A541-491A-B7CD-BED6FFBD21B2}" uniqueName="5" name="fechaNacimiento" queryTableFieldId="5" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{FD1327AB-77EB-4FCB-A1FF-7E79356C49E2}" uniqueName="6" name="sexo" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{13586D66-72D3-4F7B-98E1-372EEA901EBB}" uniqueName="3" name="nombre" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{9743215D-554E-44E5-8772-F9C19CDE78C9}" uniqueName="4" name="apellido" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{6ED720C2-A541-491A-B7CD-BED6FFBD21B2}" uniqueName="5" name="fechaNacimiento" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{FD1327AB-77EB-4FCB-A1FF-7E79356C49E2}" uniqueName="6" name="sexo" queryTableFieldId="6" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1059,7 +1058,7 @@
   <autoFilter ref="A1:B5" xr:uid="{9897BD93-50D3-412F-A12E-BF5F9D75AB71}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{8996CBD3-1410-4B01-A333-D4BA6799E212}" uniqueName="1" name="idEstadoPersona" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{D3DF013C-E543-4DE0-9428-FEC87F4A36D3}" uniqueName="2" name="descripcion" queryTableFieldId="2" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{D3DF013C-E543-4DE0-9428-FEC87F4A36D3}" uniqueName="2" name="descripcion" queryTableFieldId="2" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1399,7 +1398,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1423,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
@@ -1435,7 +1434,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -1446,7 +1445,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
@@ -1457,7 +1456,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
@@ -1468,7 +1467,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
@@ -1479,7 +1478,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
@@ -1490,7 +1489,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
@@ -1501,7 +1500,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
@@ -1512,7 +1511,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
@@ -1523,7 +1522,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
@@ -1534,7 +1533,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
@@ -1545,7 +1544,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13">
@@ -1556,7 +1555,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14">
@@ -1567,7 +1566,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
@@ -1606,7 +1605,7 @@
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1614,7 +1613,7 @@
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1622,7 +1621,7 @@
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1630,7 +1629,7 @@
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1638,7 +1637,7 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1701,13 +1700,13 @@
       <c r="B2">
         <v>769086765</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>38292</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>40269</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2">
@@ -1727,13 +1726,13 @@
       <c r="B3">
         <v>1057583006</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>39356</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>39995</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>36</v>
       </c>
       <c r="F3">
@@ -1753,13 +1752,13 @@
       <c r="B4">
         <v>52158989</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>39329</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>39904</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>36</v>
       </c>
       <c r="F4">
@@ -1779,13 +1778,13 @@
       <c r="B5">
         <v>1026553762</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>39264</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>39539</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
       <c r="F5">
@@ -1805,13 +1804,13 @@
       <c r="B6">
         <v>65799510</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>39845</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>39904</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>36</v>
       </c>
       <c r="F6">
@@ -1831,13 +1830,13 @@
       <c r="B7">
         <v>52377972</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>38883</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>40269</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
       <c r="F7">
@@ -1857,13 +1856,13 @@
       <c r="B8">
         <v>250025</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>37154</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>40269</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8">
@@ -1883,13 +1882,13 @@
       <c r="B9">
         <v>7276950</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>36495</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>37712</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>36</v>
       </c>
       <c r="F9">
@@ -1909,13 +1908,13 @@
       <c r="B10">
         <v>1127722084</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>40148</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>40269</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>37</v>
       </c>
       <c r="F10">
@@ -1935,13 +1934,13 @@
       <c r="B11">
         <v>1127722591</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>40148</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>40269</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>37</v>
       </c>
       <c r="F11">
@@ -1961,13 +1960,13 @@
       <c r="B12">
         <v>990014705</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>40148</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>40269</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>37</v>
       </c>
       <c r="F12">
@@ -1987,13 +1986,13 @@
       <c r="B13">
         <v>990014543</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>40148</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>40269</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>36</v>
       </c>
       <c r="F13">
@@ -2013,13 +2012,13 @@
       <c r="B14">
         <v>9267617</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>40148</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>40269</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>37</v>
       </c>
       <c r="F14">
@@ -2039,13 +2038,13 @@
       <c r="B15">
         <v>1126704602</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>40148</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>40269</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>37</v>
       </c>
       <c r="F15">
@@ -2065,13 +2064,13 @@
       <c r="B16">
         <v>103251438</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>39722</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>40451</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>37</v>
       </c>
       <c r="F16">
@@ -2091,13 +2090,13 @@
       <c r="B17">
         <v>96195585</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>39722</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>40451</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>37</v>
       </c>
       <c r="F17">
@@ -2117,13 +2116,13 @@
       <c r="B18">
         <v>8190364</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>39596</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>40269</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>37</v>
       </c>
       <c r="F18">
@@ -2143,13 +2142,13 @@
       <c r="B19">
         <v>1736031</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>39722</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>40451</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>36</v>
       </c>
       <c r="F19">
@@ -2169,13 +2168,13 @@
       <c r="B20">
         <v>40270715</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>39722</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>40359</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>37</v>
       </c>
       <c r="F20">
@@ -2195,13 +2194,13 @@
       <c r="B21">
         <v>2952910</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>39722</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>40451</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>37</v>
       </c>
       <c r="F21">
@@ -2221,13 +2220,13 @@
       <c r="B22">
         <v>1127385618</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>40081</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>40269</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>37</v>
       </c>
       <c r="F22">
@@ -2247,13 +2246,13 @@
       <c r="B23">
         <v>26632648</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>36982</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>40269</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>37</v>
       </c>
       <c r="F23">
@@ -2273,13 +2272,13 @@
       <c r="B24">
         <v>206276711</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>39849</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>40269</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>37</v>
       </c>
       <c r="F24">
@@ -2299,13 +2298,13 @@
       <c r="B25">
         <v>1122513211</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>40154</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>40269</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>37</v>
       </c>
       <c r="F25">
@@ -2325,13 +2324,13 @@
       <c r="B26">
         <v>79600774</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>40136</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>40451</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>37</v>
       </c>
       <c r="F26">
@@ -2351,13 +2350,13 @@
       <c r="B27">
         <v>110763859</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>40136</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>40451</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>37</v>
       </c>
       <c r="F27">
@@ -2377,13 +2376,13 @@
       <c r="B28">
         <v>6611537</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>39356</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>40269</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>37</v>
       </c>
       <c r="F28">
@@ -2403,13 +2402,13 @@
       <c r="B29">
         <v>1192213089</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>40031</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>40451</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>37</v>
       </c>
       <c r="F29">
@@ -2429,13 +2428,13 @@
       <c r="B30">
         <v>1127386495</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>39984</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>40269</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>37</v>
       </c>
       <c r="F30">
@@ -2455,13 +2454,13 @@
       <c r="B31">
         <v>250344</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>38139</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>40269</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>37</v>
       </c>
       <c r="F31">
@@ -2481,13 +2480,13 @@
       <c r="B32">
         <v>12196489</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>39701</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>39904</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>37</v>
       </c>
       <c r="F32">
@@ -2507,13 +2506,13 @@
       <c r="B33">
         <v>27385092</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>39701</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>39904</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>37</v>
       </c>
       <c r="F33">
@@ -2533,13 +2532,13 @@
       <c r="B34">
         <v>92373541</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>40156</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>40269</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>37</v>
       </c>
       <c r="F34">
@@ -2559,13 +2558,13 @@
       <c r="B35">
         <v>91106202</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>39338</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>40451</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>37</v>
       </c>
       <c r="F35">
@@ -2585,13 +2584,13 @@
       <c r="B36">
         <v>40771163</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>38139</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>40269</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>37</v>
       </c>
       <c r="F36">
@@ -2611,13 +2610,13 @@
       <c r="B37">
         <v>33001267</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>38139</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>40451</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>37</v>
       </c>
       <c r="F37">
@@ -2637,13 +2636,13 @@
       <c r="B38">
         <v>26542999</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>38701</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>40087</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>37</v>
       </c>
       <c r="F38">
@@ -2663,13 +2662,13 @@
       <c r="B39">
         <v>82154809</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>38701</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>40087</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>36</v>
       </c>
       <c r="F39">
@@ -2689,13 +2688,13 @@
       <c r="B40">
         <v>2213052</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>39826</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>40451</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>37</v>
       </c>
       <c r="F40">
@@ -2715,13 +2714,13 @@
       <c r="B41">
         <v>17340110</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>38443</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>40269</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>37</v>
       </c>
       <c r="F41">
@@ -2741,13 +2740,13 @@
       <c r="B42">
         <v>17339368</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>38687</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>40269</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>37</v>
       </c>
       <c r="F42">
@@ -2767,13 +2766,13 @@
       <c r="B43">
         <v>40382477</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>38078</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>40087</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>36</v>
       </c>
       <c r="F43">
@@ -2793,13 +2792,13 @@
       <c r="B44">
         <v>21249349</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>38443</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>40269</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>37</v>
       </c>
       <c r="F44">
@@ -2819,13 +2818,13 @@
       <c r="B45">
         <v>86055321</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>37241</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>40269</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>37</v>
       </c>
       <c r="F45">
@@ -2845,13 +2844,13 @@
       <c r="B46">
         <v>40216231</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>37241</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>40893</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>36</v>
       </c>
       <c r="F46">
@@ -2871,13 +2870,13 @@
       <c r="B47">
         <v>1121850975</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>39275</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>40269</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>37</v>
       </c>
       <c r="F47">
@@ -2897,13 +2896,13 @@
       <c r="B48">
         <v>97610314</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>39071</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>40269</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>37</v>
       </c>
       <c r="F48">
@@ -2923,13 +2922,13 @@
       <c r="B49">
         <v>30215164</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>39317</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>40269</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>37</v>
       </c>
       <c r="F49">
@@ -2949,13 +2948,13 @@
       <c r="B50">
         <v>21184191</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>39356</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>40269</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>37</v>
       </c>
       <c r="F50">
@@ -2975,13 +2974,13 @@
       <c r="B51">
         <v>18263255</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>39317</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>40269</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>37</v>
       </c>
       <c r="F51">
@@ -3001,13 +3000,13 @@
       <c r="B52">
         <v>40417149</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>36547</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>40269</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>37</v>
       </c>
       <c r="F52">
@@ -3027,13 +3026,13 @@
       <c r="B53">
         <v>1127722566</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>39172</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>40269</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>37</v>
       </c>
       <c r="F53">
@@ -3053,13 +3052,13 @@
       <c r="B54">
         <v>23836167</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>38261</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>40269</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>37</v>
       </c>
       <c r="F54">
@@ -3079,13 +3078,13 @@
       <c r="B55">
         <v>2356060</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>38443</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>40269</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>37</v>
       </c>
       <c r="F55">
@@ -3105,13 +3104,13 @@
       <c r="B56">
         <v>40417953</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>38443</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>40451</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>36</v>
       </c>
       <c r="F56">
@@ -3131,13 +3130,13 @@
       <c r="B57">
         <v>17388376</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>36617</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>40451</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>37</v>
       </c>
       <c r="F57">
@@ -3157,13 +3156,13 @@
       <c r="B58">
         <v>17389974</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>35886</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <v>40087</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>37</v>
       </c>
       <c r="F58">
@@ -3183,13 +3182,13 @@
       <c r="B59">
         <v>1121816195</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>36617</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>40269</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>37</v>
       </c>
       <c r="F59">
@@ -3209,13 +3208,13 @@
       <c r="B60">
         <v>17388487</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>36617</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>40269</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>37</v>
       </c>
       <c r="F60">
@@ -3235,13 +3234,13 @@
       <c r="B61">
         <v>40417370</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>36617</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>37408</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>36</v>
       </c>
       <c r="F61">
@@ -3261,13 +3260,13 @@
       <c r="B62">
         <v>23834813</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <v>36617</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>40087</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>37</v>
       </c>
       <c r="F62">
@@ -3287,13 +3286,13 @@
       <c r="B63">
         <v>93115847</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>38443</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <v>40269</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>37</v>
       </c>
       <c r="F63">
@@ -3313,13 +3312,13 @@
       <c r="B64">
         <v>40419288</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="1">
         <v>38443</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>40269</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>37</v>
       </c>
       <c r="F64">
@@ -3339,13 +3338,13 @@
       <c r="B65">
         <v>40419253</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="1">
         <v>39192</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>40269</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>37</v>
       </c>
       <c r="F65">
@@ -3365,13 +3364,13 @@
       <c r="B66">
         <v>2254679</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="1">
         <v>36982</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <v>40269</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>37</v>
       </c>
       <c r="F66">
@@ -3391,13 +3390,13 @@
       <c r="B67">
         <v>1127385269</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="1">
         <v>40148</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <v>40269</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>37</v>
       </c>
       <c r="F67">
@@ -3417,13 +3416,13 @@
       <c r="B68">
         <v>1082019</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="1">
         <v>40148</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <v>40269</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>37</v>
       </c>
       <c r="F68">
@@ -3443,13 +3442,13 @@
       <c r="B69">
         <v>41479669</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="1">
         <v>40148</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="1">
         <v>40269</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
         <v>37</v>
       </c>
       <c r="F69">
@@ -3469,13 +3468,13 @@
       <c r="B70">
         <v>1052390132</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="1">
         <v>39553</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <v>39904</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>37</v>
       </c>
       <c r="F70">
@@ -3495,13 +3494,13 @@
       <c r="B71">
         <v>1127386763</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="1">
         <v>40148</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>40269</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>37</v>
       </c>
       <c r="F71">
@@ -3521,13 +3520,13 @@
       <c r="B72">
         <v>1127722954</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <v>40148</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>40269</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
         <v>37</v>
       </c>
       <c r="F72">
@@ -3547,13 +3546,13 @@
       <c r="B73">
         <v>1192748086</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="1">
         <v>40148</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>40269</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
         <v>37</v>
       </c>
       <c r="F73">
@@ -3573,13 +3572,13 @@
       <c r="B74">
         <v>1127722523</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="1">
         <v>40148</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="1">
         <v>40269</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
         <v>37</v>
       </c>
       <c r="F74">
@@ -3599,13 +3598,13 @@
       <c r="B75">
         <v>1081406547</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <v>40148</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <v>40269</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" t="s">
         <v>37</v>
       </c>
       <c r="F75">
@@ -3625,13 +3624,13 @@
       <c r="B76">
         <v>18262730</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="1">
         <v>40148</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="1">
         <v>40269</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
         <v>37</v>
       </c>
       <c r="F76">
@@ -3651,13 +3650,13 @@
       <c r="B77">
         <v>86003367</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="1">
         <v>40148</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="1">
         <v>40269</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" t="s">
         <v>37</v>
       </c>
       <c r="F77">
@@ -3677,13 +3676,13 @@
       <c r="B78">
         <v>47425902</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="1">
         <v>40148</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="1">
         <v>40269</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" t="s">
         <v>37</v>
       </c>
       <c r="F78">
@@ -3703,13 +3702,13 @@
       <c r="B79">
         <v>1010045484</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="1">
         <v>40148</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="1">
         <v>40269</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" t="s">
         <v>37</v>
       </c>
       <c r="F79">
@@ -3729,13 +3728,13 @@
       <c r="B80">
         <v>2746611</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="1">
         <v>40148</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="1">
         <v>40269</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" t="s">
         <v>37</v>
       </c>
       <c r="F80">
@@ -3755,13 +3754,13 @@
       <c r="B81">
         <v>41250448</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="1">
         <v>40148</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="1">
         <v>40269</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" t="s">
         <v>37</v>
       </c>
       <c r="F81">
@@ -3781,13 +3780,13 @@
       <c r="B82">
         <v>18256624</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="1">
         <v>40148</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="1">
         <v>40269</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" t="s">
         <v>37</v>
       </c>
       <c r="F82">
@@ -3807,13 +3806,13 @@
       <c r="B83">
         <v>1127722326</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="1">
         <v>40148</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="1">
         <v>40269</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" t="s">
         <v>37</v>
       </c>
       <c r="F83">
@@ -3833,13 +3832,13 @@
       <c r="B84">
         <v>1127385785</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="1">
         <v>40148</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <v>40269</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" t="s">
         <v>37</v>
       </c>
       <c r="F84">
@@ -3859,13 +3858,13 @@
       <c r="B85">
         <v>9307252</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="1">
         <v>40148</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="1">
         <v>40269</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" t="s">
         <v>37</v>
       </c>
       <c r="F85">
@@ -3885,13 +3884,13 @@
       <c r="B86">
         <v>1192748085</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="1">
         <v>40148</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="1">
         <v>40269</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" t="s">
         <v>37</v>
       </c>
       <c r="F86">
@@ -3911,13 +3910,13 @@
       <c r="B87">
         <v>1010080473</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="1">
         <v>40148</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="1">
         <v>40269</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87">
@@ -3937,13 +3936,13 @@
       <c r="B88">
         <v>55212231</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="1">
         <v>40148</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="1">
         <v>40269</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" t="s">
         <v>37</v>
       </c>
       <c r="F88">
@@ -3963,13 +3962,13 @@
       <c r="B89">
         <v>18263392</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="1">
         <v>40148</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="1">
         <v>40269</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" t="s">
         <v>37</v>
       </c>
       <c r="F89">
@@ -3989,13 +3988,13 @@
       <c r="B90">
         <v>1127722565</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="1">
         <v>40148</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="1">
         <v>40269</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" t="s">
         <v>37</v>
       </c>
       <c r="F90">
@@ -4015,13 +4014,13 @@
       <c r="B91">
         <v>30937299</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="1">
         <v>40148</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="1">
         <v>40269</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" t="s">
         <v>37</v>
       </c>
       <c r="F91">
@@ -4041,13 +4040,13 @@
       <c r="B92">
         <v>1127722513</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="1">
         <v>40148</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="1">
         <v>40269</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" t="s">
         <v>37</v>
       </c>
       <c r="F92">
@@ -4067,13 +4066,13 @@
       <c r="B93">
         <v>1122722735</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="1">
         <v>40148</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="1">
         <v>40269</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" t="s">
         <v>37</v>
       </c>
       <c r="F93">
@@ -4093,13 +4092,13 @@
       <c r="B94">
         <v>1105611093</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="1">
         <v>40148</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="1">
         <v>40269</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" t="s">
         <v>37</v>
       </c>
       <c r="F94">
@@ -4119,13 +4118,13 @@
       <c r="B95">
         <v>4186277</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="1">
         <v>40148</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="1">
         <v>40269</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" t="s">
         <v>37</v>
       </c>
       <c r="F95">
@@ -4145,13 +4144,13 @@
       <c r="B96">
         <v>1010081989</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="1">
         <v>40148</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="1">
         <v>40269</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" t="s">
         <v>37</v>
       </c>
       <c r="F96">
@@ -4171,13 +4170,13 @@
       <c r="B97">
         <v>1120865708</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="1">
         <v>40148</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="1">
         <v>40269</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" t="s">
         <v>37</v>
       </c>
       <c r="F97">
@@ -4197,13 +4196,13 @@
       <c r="B98">
         <v>86050207</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="1">
         <v>40148</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="1">
         <v>40269</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" t="s">
         <v>37</v>
       </c>
       <c r="F98">
@@ -4263,13 +4262,13 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>37</v>
       </c>
       <c r="D2">
         <v>56000</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4280,13 +4279,13 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>37</v>
       </c>
       <c r="D3">
         <v>28000</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4297,13 +4296,13 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4">
         <v>36000</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4314,13 +4313,13 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
       <c r="D5">
         <v>156000</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4331,13 +4330,13 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>36</v>
       </c>
       <c r="D6">
         <v>256000</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4348,13 +4347,13 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>37</v>
       </c>
       <c r="D7">
         <v>556000</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4365,13 +4364,13 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8">
         <v>78000</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4382,13 +4381,13 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9">
         <v>6000</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4399,13 +4398,13 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
       <c r="D10">
         <v>76000</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4416,13 +4415,13 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
       <c r="D11">
         <v>96000</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4433,13 +4432,13 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>37</v>
       </c>
       <c r="D12">
         <v>56000</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4450,13 +4449,13 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
       <c r="D13">
         <v>28000</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4467,13 +4466,13 @@
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="D14">
         <v>36000</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4484,13 +4483,13 @@
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>37</v>
       </c>
       <c r="D15">
         <v>156000</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4501,13 +4500,13 @@
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>36</v>
       </c>
       <c r="D16">
         <v>256000</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4518,13 +4517,13 @@
       <c r="B17">
         <v>6</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>37</v>
       </c>
       <c r="D17">
         <v>556000</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4535,13 +4534,13 @@
       <c r="B18">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>36</v>
       </c>
       <c r="D18">
         <v>78000</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4552,13 +4551,13 @@
       <c r="B19">
         <v>8</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>37</v>
       </c>
       <c r="D19">
         <v>6000</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4569,13 +4568,13 @@
       <c r="B20">
         <v>9</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>37</v>
       </c>
       <c r="D20">
         <v>76000</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4586,13 +4585,13 @@
       <c r="B21">
         <v>10</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21">
         <v>96000</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4603,13 +4602,13 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="D22">
         <v>56000</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4620,13 +4619,13 @@
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>37</v>
       </c>
       <c r="D23">
         <v>28000</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4637,13 +4636,13 @@
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24">
         <v>36000</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4654,13 +4653,13 @@
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
         <v>156000</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4671,13 +4670,13 @@
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26">
         <v>256000</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4688,13 +4687,13 @@
       <c r="B27">
         <v>6</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27">
         <v>556000</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4705,13 +4704,13 @@
       <c r="B28">
         <v>7</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28">
         <v>78000</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4722,13 +4721,13 @@
       <c r="B29">
         <v>8</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29">
         <v>6000</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4739,13 +4738,13 @@
       <c r="B30">
         <v>9</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>37</v>
       </c>
       <c r="D30">
         <v>76000</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4756,13 +4755,13 @@
       <c r="B31">
         <v>10</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>36</v>
       </c>
       <c r="D31">
         <v>96000</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4773,13 +4772,13 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>36</v>
       </c>
       <c r="D32">
         <v>56000</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4790,13 +4789,13 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>37</v>
       </c>
       <c r="D33">
         <v>28000</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4807,13 +4806,13 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34">
         <v>36000</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4824,13 +4823,13 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35">
         <v>156000</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4841,13 +4840,13 @@
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>36</v>
       </c>
       <c r="D36">
         <v>256000</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4858,13 +4857,13 @@
       <c r="B37">
         <v>6</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>36</v>
       </c>
       <c r="D37">
         <v>556000</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4875,13 +4874,13 @@
       <c r="B38">
         <v>7</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>37</v>
       </c>
       <c r="D38">
         <v>78000</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4892,13 +4891,13 @@
       <c r="B39">
         <v>8</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>37</v>
       </c>
       <c r="D39">
         <v>6000</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4909,13 +4908,13 @@
       <c r="B40">
         <v>9</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>36</v>
       </c>
       <c r="D40">
         <v>76000</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4926,13 +4925,13 @@
       <c r="B41">
         <v>10</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>36</v>
       </c>
       <c r="D41">
         <v>96000</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4943,13 +4942,13 @@
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>36</v>
       </c>
       <c r="D42">
         <v>56000</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4960,13 +4959,13 @@
       <c r="B43">
         <v>2</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>37</v>
       </c>
       <c r="D43">
         <v>28000</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4977,13 +4976,13 @@
       <c r="B44">
         <v>3</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>36</v>
       </c>
       <c r="D44">
         <v>36000</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4994,13 +4993,13 @@
       <c r="B45">
         <v>4</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>36</v>
       </c>
       <c r="D45">
         <v>156000</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5011,13 +5010,13 @@
       <c r="B46">
         <v>5</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>36</v>
       </c>
       <c r="D46">
         <v>256000</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5028,13 +5027,13 @@
       <c r="B47">
         <v>6</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>36</v>
       </c>
       <c r="D47">
         <v>556000</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5045,13 +5044,13 @@
       <c r="B48">
         <v>7</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>37</v>
       </c>
       <c r="D48">
         <v>78000</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5062,13 +5061,13 @@
       <c r="B49">
         <v>8</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>37</v>
       </c>
       <c r="D49">
         <v>6000</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5079,13 +5078,13 @@
       <c r="B50">
         <v>9</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>36</v>
       </c>
       <c r="D50">
         <v>76000</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5096,13 +5095,13 @@
       <c r="B51">
         <v>10</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>36</v>
       </c>
       <c r="D51">
         <v>96000</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5113,13 +5112,13 @@
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>37</v>
       </c>
       <c r="D52">
         <v>56000</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5130,13 +5129,13 @@
       <c r="B53">
         <v>2</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>37</v>
       </c>
       <c r="D53">
         <v>28000</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5147,13 +5146,13 @@
       <c r="B54">
         <v>3</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>37</v>
       </c>
       <c r="D54">
         <v>36000</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5164,13 +5163,13 @@
       <c r="B55">
         <v>4</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>36</v>
       </c>
       <c r="D55">
         <v>156000</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5181,13 +5180,13 @@
       <c r="B56">
         <v>5</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>36</v>
       </c>
       <c r="D56">
         <v>256000</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5198,13 +5197,13 @@
       <c r="B57">
         <v>6</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>37</v>
       </c>
       <c r="D57">
         <v>556000</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5215,13 +5214,13 @@
       <c r="B58">
         <v>7</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>37</v>
       </c>
       <c r="D58">
         <v>78000</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5232,13 +5231,13 @@
       <c r="B59">
         <v>8</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>36</v>
       </c>
       <c r="D59">
         <v>6000</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5249,13 +5248,13 @@
       <c r="B60">
         <v>9</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>36</v>
       </c>
       <c r="D60">
         <v>76000</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5266,13 +5265,13 @@
       <c r="B61">
         <v>10</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>37</v>
       </c>
       <c r="D61">
         <v>96000</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5283,13 +5282,13 @@
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>37</v>
       </c>
       <c r="D62">
         <v>56000</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5300,13 +5299,13 @@
       <c r="B63">
         <v>2</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>37</v>
       </c>
       <c r="D63">
         <v>28000</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5317,13 +5316,13 @@
       <c r="B64">
         <v>3</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>37</v>
       </c>
       <c r="D64">
         <v>36000</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5334,13 +5333,13 @@
       <c r="B65">
         <v>4</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>36</v>
       </c>
       <c r="D65">
         <v>156000</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5351,13 +5350,13 @@
       <c r="B66">
         <v>5</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>36</v>
       </c>
       <c r="D66">
         <v>256000</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5368,13 +5367,13 @@
       <c r="B67">
         <v>6</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>37</v>
       </c>
       <c r="D67">
         <v>556000</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5385,13 +5384,13 @@
       <c r="B68">
         <v>7</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>37</v>
       </c>
       <c r="D68">
         <v>78000</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5402,13 +5401,13 @@
       <c r="B69">
         <v>8</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>36</v>
       </c>
       <c r="D69">
         <v>6000</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5419,13 +5418,13 @@
       <c r="B70">
         <v>9</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>36</v>
       </c>
       <c r="D70">
         <v>76000</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5436,13 +5435,13 @@
       <c r="B71">
         <v>10</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>37</v>
       </c>
       <c r="D71">
         <v>96000</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5453,13 +5452,13 @@
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>37</v>
       </c>
       <c r="D72">
         <v>56000</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5470,13 +5469,13 @@
       <c r="B73">
         <v>2</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>37</v>
       </c>
       <c r="D73">
         <v>28000</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5487,13 +5486,13 @@
       <c r="B74">
         <v>3</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>37</v>
       </c>
       <c r="D74">
         <v>36000</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5504,13 +5503,13 @@
       <c r="B75">
         <v>4</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>36</v>
       </c>
       <c r="D75">
         <v>156000</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5521,13 +5520,13 @@
       <c r="B76">
         <v>5</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>36</v>
       </c>
       <c r="D76">
         <v>256000</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5538,13 +5537,13 @@
       <c r="B77">
         <v>6</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>37</v>
       </c>
       <c r="D77">
         <v>556000</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5555,13 +5554,13 @@
       <c r="B78">
         <v>7</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>37</v>
       </c>
       <c r="D78">
         <v>78000</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5572,13 +5571,13 @@
       <c r="B79">
         <v>8</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>36</v>
       </c>
       <c r="D79">
         <v>6000</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5589,13 +5588,13 @@
       <c r="B80">
         <v>9</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>36</v>
       </c>
       <c r="D80">
         <v>76000</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5606,13 +5605,13 @@
       <c r="B81">
         <v>10</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>37</v>
       </c>
       <c r="D81">
         <v>96000</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5623,13 +5622,13 @@
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>37</v>
       </c>
       <c r="D82">
         <v>56000</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5640,13 +5639,13 @@
       <c r="B83">
         <v>2</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>37</v>
       </c>
       <c r="D83">
         <v>28000</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5657,13 +5656,13 @@
       <c r="B84">
         <v>3</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>37</v>
       </c>
       <c r="D84">
         <v>36000</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5674,13 +5673,13 @@
       <c r="B85">
         <v>4</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>36</v>
       </c>
       <c r="D85">
         <v>156000</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5691,13 +5690,13 @@
       <c r="B86">
         <v>5</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>36</v>
       </c>
       <c r="D86">
         <v>256000</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5708,13 +5707,13 @@
       <c r="B87">
         <v>6</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" t="s">
         <v>37</v>
       </c>
       <c r="D87">
         <v>556000</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5725,13 +5724,13 @@
       <c r="B88">
         <v>7</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" t="s">
         <v>37</v>
       </c>
       <c r="D88">
         <v>78000</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5742,13 +5741,13 @@
       <c r="B89">
         <v>8</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>36</v>
       </c>
       <c r="D89">
         <v>6000</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5759,13 +5758,13 @@
       <c r="B90">
         <v>9</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" t="s">
         <v>36</v>
       </c>
       <c r="D90">
         <v>76000</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5776,13 +5775,13 @@
       <c r="B91">
         <v>10</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>37</v>
       </c>
       <c r="D91">
         <v>96000</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5793,13 +5792,13 @@
       <c r="B92">
         <v>1</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>37</v>
       </c>
       <c r="D92">
         <v>56000</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5810,13 +5809,13 @@
       <c r="B93">
         <v>2</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>37</v>
       </c>
       <c r="D93">
         <v>28000</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5827,13 +5826,13 @@
       <c r="B94">
         <v>3</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>37</v>
       </c>
       <c r="D94">
         <v>36000</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5844,13 +5843,13 @@
       <c r="B95">
         <v>4</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>36</v>
       </c>
       <c r="D95">
         <v>156000</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5861,13 +5860,13 @@
       <c r="B96">
         <v>5</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" t="s">
         <v>36</v>
       </c>
       <c r="D96">
         <v>256000</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5878,13 +5877,13 @@
       <c r="B97">
         <v>6</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>37</v>
       </c>
       <c r="D97">
         <v>556000</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5895,13 +5894,13 @@
       <c r="B98">
         <v>7</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" t="s">
         <v>37</v>
       </c>
       <c r="D98">
         <v>78000</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5912,13 +5911,13 @@
       <c r="B99">
         <v>8</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>36</v>
       </c>
       <c r="D99">
         <v>6000</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5929,13 +5928,13 @@
       <c r="B100">
         <v>9</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" t="s">
         <v>36</v>
       </c>
       <c r="D100">
         <v>76000</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5946,13 +5945,13 @@
       <c r="B101">
         <v>10</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" t="s">
         <v>37</v>
       </c>
       <c r="D101">
         <v>96000</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6006,16 +6005,16 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>29056</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6026,16 +6025,16 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>36700</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6046,16 +6045,16 @@
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>36669</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6066,16 +6065,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>12691</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6086,16 +6085,16 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>39821</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6106,16 +6105,16 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>30382</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6126,16 +6125,16 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>17337</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6146,16 +6145,16 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>21125</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6166,16 +6165,16 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>13842</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6186,16 +6185,16 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>19317</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6206,16 +6205,16 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>13429</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6226,16 +6225,16 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>26465</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6246,16 +6245,16 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>20302</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6266,16 +6265,16 @@
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>33142</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6286,16 +6285,16 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>34175</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6306,16 +6305,16 @@
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>27652</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6326,16 +6325,16 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>24606</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6346,16 +6345,16 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>24719</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6366,16 +6365,16 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>23427</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6386,16 +6385,16 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>25577</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6406,16 +6405,16 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>25619</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6426,16 +6425,16 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>28737</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6446,16 +6445,16 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>29152</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6466,16 +6465,16 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>28113</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6486,16 +6485,16 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>30059</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6506,16 +6505,16 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>12689</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6526,16 +6525,16 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>26823</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6546,16 +6545,16 @@
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>19916</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6566,16 +6565,16 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>25233</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6586,16 +6585,16 @@
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>29088</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6606,16 +6605,16 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>22416</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6626,16 +6625,16 @@
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>39267</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6646,16 +6645,16 @@
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>10593</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6666,16 +6665,16 @@
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>28696</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6686,16 +6685,16 @@
       <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>34788</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6706,16 +6705,16 @@
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>30043</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6726,16 +6725,16 @@
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>21756</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6746,16 +6745,16 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>112</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>24855</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6766,16 +6765,16 @@
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>28178</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6786,16 +6785,16 @@
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>27077</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6806,16 +6805,16 @@
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>27856</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6826,16 +6825,16 @@
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>29642</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6846,16 +6845,16 @@
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>25663</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6866,16 +6865,16 @@
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>121</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>24918</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6886,16 +6885,16 @@
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>21736</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6906,16 +6905,16 @@
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>17032</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6926,16 +6925,16 @@
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>126</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>26959</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6946,16 +6945,16 @@
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>27543</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6966,16 +6965,16 @@
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>25580</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6986,16 +6985,16 @@
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>29363</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7006,16 +7005,16 @@
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>28124</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7026,16 +7025,16 @@
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>133</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>134</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>26577</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7046,16 +7045,16 @@
       <c r="B54">
         <v>4</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>136</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>38440</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7066,16 +7065,16 @@
       <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>137</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>138</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>22784</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7086,16 +7085,16 @@
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>27827</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7106,16 +7105,16 @@
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>134</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>26173</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7126,16 +7125,16 @@
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>140</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>107</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>24828</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7146,16 +7145,16 @@
       <c r="B59">
         <v>2</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>141</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>36061</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7166,16 +7165,16 @@
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>21371</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7186,16 +7185,16 @@
       <c r="B61">
         <v>1</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>144</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>145</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>30996</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7206,16 +7205,16 @@
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>146</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>147</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>30311</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7226,16 +7225,16 @@
       <c r="B63">
         <v>2</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>148</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>149</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>33322</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7246,16 +7245,16 @@
       <c r="B64">
         <v>2</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>150</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>134</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>36106</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7266,16 +7265,16 @@
       <c r="B65">
         <v>2</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>151</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>152</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>33782</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7286,16 +7285,16 @@
       <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>153</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>154</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>24057</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7306,16 +7305,16 @@
       <c r="B67">
         <v>2</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>155</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>156</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>35537</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7326,16 +7325,16 @@
       <c r="B68">
         <v>3</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>157</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>34388</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7346,16 +7345,16 @@
       <c r="B69">
         <v>3</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>158</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>159</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>35975</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7366,16 +7365,16 @@
       <c r="B70">
         <v>2</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>160</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>126</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>34937</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7386,16 +7385,16 @@
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>161</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>105</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>32688</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7406,16 +7405,16 @@
       <c r="B72">
         <v>2</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>162</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>64</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>35153</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7426,16 +7425,16 @@
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" t="s">
         <v>82</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>28442</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7446,16 +7445,16 @@
       <c r="B74">
         <v>4</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>163</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>82</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1">
         <v>39487</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7466,16 +7465,16 @@
       <c r="B75">
         <v>1</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>109</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>164</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1">
         <v>32875</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7486,16 +7485,16 @@
       <c r="B76">
         <v>4</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>165</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>166</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="1">
         <v>39787</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7506,16 +7505,16 @@
       <c r="B77">
         <v>4</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>167</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" t="s">
         <v>168</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="1">
         <v>38429</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7526,16 +7525,16 @@
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>169</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" t="s">
         <v>88</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="1">
         <v>31668</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7546,16 +7545,16 @@
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" t="s">
         <v>171</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="1">
         <v>31395</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7566,16 +7565,16 @@
       <c r="B80">
         <v>4</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>172</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" t="s">
         <v>173</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="1">
         <v>39174</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7586,16 +7585,16 @@
       <c r="B81">
         <v>4</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>174</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>90</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="1">
         <v>38852</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7606,16 +7605,16 @@
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>175</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" t="s">
         <v>176</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="1">
         <v>31165</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7626,16 +7625,16 @@
       <c r="B83">
         <v>4</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>177</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" t="s">
         <v>178</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="1">
         <v>40139</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7646,16 +7645,16 @@
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>139</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" t="s">
         <v>179</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="1">
         <v>32655</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7666,16 +7665,16 @@
       <c r="B85">
         <v>4</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>180</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" t="s">
         <v>181</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="1">
         <v>39546</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7686,16 +7685,16 @@
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>89</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" t="s">
         <v>182</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="1">
         <v>33053</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7706,16 +7705,16 @@
       <c r="B87">
         <v>4</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" t="s">
         <v>183</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" t="s">
         <v>178</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="1">
         <v>39959</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7726,16 +7725,16 @@
       <c r="B88">
         <v>4</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" t="s">
         <v>184</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" t="s">
         <v>126</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="1">
         <v>40100</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7746,16 +7745,16 @@
       <c r="B89">
         <v>4</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>185</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" t="s">
         <v>88</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="1">
         <v>38027</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7766,16 +7765,16 @@
       <c r="B90">
         <v>4</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" t="s">
         <v>186</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" t="s">
         <v>126</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="1">
         <v>38051</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7786,16 +7785,16 @@
       <c r="B91">
         <v>4</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>187</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" t="s">
         <v>138</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="1">
         <v>38723</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7806,16 +7805,16 @@
       <c r="B92">
         <v>4</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" t="s">
         <v>114</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="1">
         <v>38748</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7826,16 +7825,16 @@
       <c r="B93">
         <v>4</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>53</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" t="s">
         <v>90</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="1">
         <v>38454</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7846,16 +7845,16 @@
       <c r="B94">
         <v>4</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>188</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" t="s">
         <v>189</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="1">
         <v>38781</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7866,16 +7865,16 @@
       <c r="B95">
         <v>4</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>190</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" t="s">
         <v>181</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="1">
         <v>38967</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7886,16 +7885,16 @@
       <c r="B96">
         <v>4</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" t="s">
         <v>89</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" t="s">
         <v>182</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="1">
         <v>39288</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7906,16 +7905,16 @@
       <c r="B97">
         <v>4</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>191</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" t="s">
         <v>192</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="1">
         <v>40002</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7926,16 +7925,16 @@
       <c r="B98">
         <v>2</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" t="s">
         <v>193</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" t="s">
         <v>73</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="1">
         <v>35542</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7946,16 +7945,16 @@
       <c r="B99">
         <v>2</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>194</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" t="s">
         <v>73</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="1">
         <v>36486</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7991,7 +7990,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7999,7 +7998,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8007,7 +8006,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8015,7 +8014,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8051,7 +8050,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8059,7 +8058,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>204</v>
       </c>
     </row>
@@ -8067,7 +8066,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>205</v>
       </c>
     </row>
@@ -8075,7 +8074,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>206</v>
       </c>
     </row>
@@ -8083,7 +8082,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>207</v>
       </c>
     </row>
@@ -8123,10 +8122,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -8134,10 +8133,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>213</v>
       </c>
     </row>
@@ -8145,10 +8144,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>215</v>
       </c>
     </row>
@@ -8156,10 +8155,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8167,10 +8166,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>219</v>
       </c>
     </row>
@@ -8206,7 +8205,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8214,7 +8213,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -8222,7 +8221,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -8230,7 +8229,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -8238,7 +8237,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -8246,7 +8245,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>225</v>
       </c>
     </row>
@@ -8254,7 +8253,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>226</v>
       </c>
     </row>
@@ -8262,7 +8261,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>227</v>
       </c>
     </row>
@@ -8270,7 +8269,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -8278,7 +8277,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>229</v>
       </c>
     </row>
